--- a/Primary widget-area/Store/Test Cases - store .xlsx
+++ b/Primary widget-area/Store/Test Cases - store .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\OTHERS\AcademyBugs - Testing\Primary widget-area\Store\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\Software Testing\AcademyBugs - Manual Testing\Primary widget-area\Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A96912E-00C4-4B3A-B135-C82879E7A55C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0970683F-EAE5-4C10-81CD-50788E4D91F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,15 +803,6 @@
 </t>
   </si>
   <si>
-    <t>To be in  the Store page</t>
-  </si>
-  <si>
-    <t>To be in  the Store/all items page</t>
-  </si>
-  <si>
-    <t>To be in Store/Product page</t>
-  </si>
-  <si>
     <t>A linked directory contains ( Home / Shop / All Items ) Above The Item photo, which will be shown in gray color</t>
   </si>
   <si>
@@ -1296,6 +1287,15 @@
   </si>
   <si>
     <t>16/3/2025</t>
+  </si>
+  <si>
+    <t>Ensure the Products exists on the Store page</t>
+  </si>
+  <si>
+    <t>Ensure the Products exists on the Store/all items page</t>
+  </si>
+  <si>
+    <t>Ensure the Products exists on The Store/Product page</t>
   </si>
 </sst>
 </file>
@@ -1581,6 +1581,33 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1610,33 +1637,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2276,8 +2276,8 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2295,75 +2295,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="53.25" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="43.5" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9" ht="51" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="39.75" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -2398,19 +2398,19 @@
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="30" t="s">
         <v>128</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>197</v>
+      <c r="D7" s="27" t="s">
+        <v>343</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="11" t="s">
         <v>192</v>
       </c>
@@ -2425,15 +2425,15 @@
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="11" t="s">
         <v>83</v>
       </c>
@@ -2448,15 +2448,15 @@
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="11" t="s">
         <v>123</v>
       </c>
@@ -2471,15 +2471,15 @@
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="11" t="s">
         <v>125</v>
       </c>
@@ -2494,15 +2494,15 @@
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="11" t="s">
         <v>126</v>
       </c>
@@ -2517,15 +2517,15 @@
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="13" t="s">
         <v>86</v>
       </c>
@@ -2540,15 +2540,15 @@
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="13" t="s">
         <v>89</v>
       </c>
@@ -2563,15 +2563,15 @@
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="13" t="s">
         <v>91</v>
       </c>
@@ -2586,15 +2586,15 @@
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="13" t="s">
         <v>93</v>
       </c>
@@ -2609,15 +2609,15 @@
       <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="13" t="s">
         <v>96</v>
       </c>
@@ -2632,15 +2632,15 @@
       <c r="A17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="13" t="s">
         <v>99</v>
       </c>
@@ -2655,15 +2655,15 @@
       <c r="A18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="13" t="s">
         <v>102</v>
       </c>
@@ -2678,15 +2678,15 @@
       <c r="A19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="13" t="s">
         <v>105</v>
       </c>
@@ -2701,15 +2701,15 @@
       <c r="A20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="13" t="s">
         <v>108</v>
       </c>
@@ -2724,15 +2724,15 @@
       <c r="A21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="13" t="s">
         <v>77</v>
       </c>
@@ -2747,15 +2747,15 @@
       <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="13" t="s">
         <v>80</v>
       </c>
@@ -2770,15 +2770,15 @@
       <c r="A23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="10" t="s">
         <v>110</v>
       </c>
@@ -2793,20 +2793,20 @@
       <c r="A24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D24" s="19"/>
+        <v>334</v>
+      </c>
+      <c r="D24" s="28"/>
       <c r="E24" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="13" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>16</v>
@@ -2816,20 +2816,20 @@
       <c r="A25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F25" s="17"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>16</v>
@@ -2839,15 +2839,15 @@
       <c r="A26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="13" t="s">
         <v>113</v>
       </c>
@@ -2862,15 +2862,15 @@
       <c r="A27" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="13" t="s">
         <v>117</v>
       </c>
@@ -2885,15 +2885,15 @@
       <c r="A28" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="13" t="s">
         <v>120</v>
       </c>
@@ -2908,19 +2908,19 @@
       <c r="A29" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="30" t="s">
         <v>148</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>198</v>
+      <c r="D29" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="16"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="11" t="s">
         <v>192</v>
       </c>
@@ -2935,15 +2935,15 @@
       <c r="A30" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="22"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="11" t="s">
         <v>83</v>
       </c>
@@ -2958,15 +2958,15 @@
       <c r="A31" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="22"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="11" t="s">
         <v>123</v>
       </c>
@@ -2981,15 +2981,15 @@
       <c r="A32" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="11" t="s">
         <v>125</v>
       </c>
@@ -3004,15 +3004,15 @@
       <c r="A33" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="11" t="s">
         <v>126</v>
       </c>
@@ -3027,15 +3027,15 @@
       <c r="A34" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="13" t="s">
         <v>86</v>
       </c>
@@ -3050,15 +3050,15 @@
       <c r="A35" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="17"/>
+      <c r="F35" s="26"/>
       <c r="G35" s="13" t="s">
         <v>89</v>
       </c>
@@ -3073,15 +3073,15 @@
       <c r="A36" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="26"/>
       <c r="G36" s="13" t="s">
         <v>91</v>
       </c>
@@ -3096,15 +3096,15 @@
       <c r="A37" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="26"/>
       <c r="G37" s="13" t="s">
         <v>93</v>
       </c>
@@ -3119,15 +3119,15 @@
       <c r="A38" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="22"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F38" s="17"/>
+      <c r="F38" s="26"/>
       <c r="G38" s="13" t="s">
         <v>96</v>
       </c>
@@ -3142,15 +3142,15 @@
       <c r="A39" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B39" s="22"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="17"/>
+      <c r="F39" s="26"/>
       <c r="G39" s="13" t="s">
         <v>99</v>
       </c>
@@ -3165,15 +3165,15 @@
       <c r="A40" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="22"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="17"/>
+      <c r="F40" s="26"/>
       <c r="G40" s="13" t="s">
         <v>102</v>
       </c>
@@ -3188,15 +3188,15 @@
       <c r="A41" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="22"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="17"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="13" t="s">
         <v>105</v>
       </c>
@@ -3211,15 +3211,15 @@
       <c r="A42" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="17"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="13" t="s">
         <v>108</v>
       </c>
@@ -3234,15 +3234,15 @@
       <c r="A43" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="22"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="17"/>
+      <c r="F43" s="26"/>
       <c r="G43" s="13" t="s">
         <v>77</v>
       </c>
@@ -3257,15 +3257,15 @@
       <c r="A44" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="22"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="19"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F44" s="17"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="13" t="s">
         <v>80</v>
       </c>
@@ -3280,20 +3280,20 @@
       <c r="A45" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="22"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="17"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="10" t="s">
         <v>110</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>19</v>
@@ -3303,20 +3303,20 @@
       <c r="A46" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B46" s="22"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D46" s="19"/>
+        <v>334</v>
+      </c>
+      <c r="D46" s="28"/>
       <c r="E46" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="17"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="13" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>16</v>
@@ -3326,20 +3326,20 @@
       <c r="A47" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D47" s="19"/>
+        <v>297</v>
+      </c>
+      <c r="D47" s="28"/>
       <c r="E47" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="F47" s="17"/>
+        <v>301</v>
+      </c>
+      <c r="F47" s="26"/>
       <c r="G47" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>16</v>
@@ -3349,15 +3349,15 @@
       <c r="A48" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="22"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="19"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F48" s="17"/>
+      <c r="F48" s="26"/>
       <c r="G48" s="13" t="s">
         <v>113</v>
       </c>
@@ -3372,15 +3372,15 @@
       <c r="A49" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B49" s="22"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="17"/>
+      <c r="F49" s="26"/>
       <c r="G49" s="13" t="s">
         <v>117</v>
       </c>
@@ -3395,15 +3395,15 @@
       <c r="A50" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B50" s="22"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="20"/>
+      <c r="D50" s="29"/>
       <c r="E50" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F50" s="17"/>
+      <c r="F50" s="26"/>
       <c r="G50" s="13" t="s">
         <v>120</v>
       </c>
@@ -3416,16 +3416,16 @@
     </row>
     <row r="51" spans="1:9" ht="249.95" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="30" t="s">
         <v>194</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>199</v>
+      <c r="D51" s="27" t="s">
+        <v>345</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>195</v>
@@ -3443,22 +3443,22 @@
     </row>
     <row r="52" spans="1:9" ht="249.95" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B52" s="22"/>
+        <v>209</v>
+      </c>
+      <c r="B52" s="31"/>
       <c r="C52" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>16</v>
@@ -3466,22 +3466,22 @@
     </row>
     <row r="53" spans="1:9" ht="249.95" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B53" s="22"/>
+        <v>210</v>
+      </c>
+      <c r="B53" s="31"/>
       <c r="C53" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="19"/>
+        <v>199</v>
+      </c>
+      <c r="D53" s="28"/>
       <c r="E53" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>16</v>
@@ -3489,22 +3489,22 @@
     </row>
     <row r="54" spans="1:9" ht="249.95" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B54" s="22"/>
+        <v>211</v>
+      </c>
+      <c r="B54" s="31"/>
       <c r="C54" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I54" s="14" t="s">
         <v>16</v>
@@ -3512,22 +3512,22 @@
     </row>
     <row r="55" spans="1:9" ht="249.95" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B55" s="22"/>
+        <v>212</v>
+      </c>
+      <c r="B55" s="31"/>
       <c r="C55" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D55" s="19"/>
+        <v>206</v>
+      </c>
+      <c r="D55" s="28"/>
       <c r="E55" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I55" s="14" t="s">
         <v>16</v>
@@ -3535,22 +3535,22 @@
     </row>
     <row r="56" spans="1:9" ht="249.95" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" s="22"/>
+        <v>213</v>
+      </c>
+      <c r="B56" s="31"/>
       <c r="C56" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="19"/>
+        <v>214</v>
+      </c>
+      <c r="D56" s="28"/>
       <c r="E56" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I56" s="14" t="s">
         <v>16</v>
@@ -3558,22 +3558,22 @@
     </row>
     <row r="57" spans="1:9" ht="249.95" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B57" s="22"/>
+        <v>220</v>
+      </c>
+      <c r="B57" s="31"/>
       <c r="C57" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D57" s="19"/>
+        <v>216</v>
+      </c>
+      <c r="D57" s="28"/>
       <c r="E57" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I57" s="14" t="s">
         <v>16</v>
@@ -3581,22 +3581,22 @@
     </row>
     <row r="58" spans="1:9" ht="249.95" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B58" s="22"/>
+        <v>221</v>
+      </c>
+      <c r="B58" s="31"/>
       <c r="C58" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="19"/>
+        <v>218</v>
+      </c>
+      <c r="D58" s="28"/>
       <c r="E58" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I58" s="14" t="s">
         <v>16</v>
@@ -3604,22 +3604,22 @@
     </row>
     <row r="59" spans="1:9" ht="249.95" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B59" s="22"/>
+        <v>222</v>
+      </c>
+      <c r="B59" s="31"/>
       <c r="C59" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D59" s="19"/>
+        <v>224</v>
+      </c>
+      <c r="D59" s="28"/>
       <c r="E59" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>19</v>
@@ -3627,22 +3627,22 @@
     </row>
     <row r="60" spans="1:9" ht="249.95" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B60" s="22"/>
+        <v>239</v>
+      </c>
+      <c r="B60" s="31"/>
       <c r="C60" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D60" s="19"/>
+        <v>225</v>
+      </c>
+      <c r="D60" s="28"/>
       <c r="E60" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I60" s="14" t="s">
         <v>19</v>
@@ -3650,22 +3650,22 @@
     </row>
     <row r="61" spans="1:9" ht="249.95" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B61" s="22"/>
+        <v>246</v>
+      </c>
+      <c r="B61" s="31"/>
       <c r="C61" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D61" s="19"/>
+        <v>242</v>
+      </c>
+      <c r="D61" s="28"/>
       <c r="E61" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I61" s="14" t="s">
         <v>19</v>
@@ -3673,22 +3673,22 @@
     </row>
     <row r="62" spans="1:9" ht="249.95" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B62" s="22"/>
+        <v>247</v>
+      </c>
+      <c r="B62" s="31"/>
       <c r="C62" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D62" s="19"/>
+        <v>254</v>
+      </c>
+      <c r="D62" s="28"/>
       <c r="E62" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I62" s="14" t="s">
         <v>16</v>
@@ -3696,22 +3696,22 @@
     </row>
     <row r="63" spans="1:9" ht="249.95" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B63" s="22"/>
+        <v>248</v>
+      </c>
+      <c r="B63" s="31"/>
       <c r="C63" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D63" s="19"/>
+        <v>257</v>
+      </c>
+      <c r="D63" s="28"/>
       <c r="E63" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I63" s="14" t="s">
         <v>19</v>
@@ -3719,22 +3719,22 @@
     </row>
     <row r="64" spans="1:9" ht="249.95" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B64" s="22"/>
+        <v>249</v>
+      </c>
+      <c r="B64" s="31"/>
       <c r="C64" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D64" s="19"/>
+        <v>261</v>
+      </c>
+      <c r="D64" s="28"/>
       <c r="E64" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I64" s="14" t="s">
         <v>16</v>
@@ -3742,22 +3742,22 @@
     </row>
     <row r="65" spans="1:11" ht="249.95" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B65" s="22"/>
+        <v>250</v>
+      </c>
+      <c r="B65" s="31"/>
       <c r="C65" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D65" s="19"/>
+        <v>265</v>
+      </c>
+      <c r="D65" s="28"/>
       <c r="E65" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I65" s="14" t="s">
         <v>16</v>
@@ -3769,22 +3769,22 @@
     </row>
     <row r="66" spans="1:11" ht="249.95" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B66" s="22"/>
+        <v>251</v>
+      </c>
+      <c r="B66" s="31"/>
       <c r="C66" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D66" s="19"/>
+        <v>269</v>
+      </c>
+      <c r="D66" s="28"/>
       <c r="E66" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I66" s="14" t="s">
         <v>16</v>
@@ -3792,22 +3792,22 @@
     </row>
     <row r="67" spans="1:11" ht="291" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B67" s="22"/>
+        <v>252</v>
+      </c>
+      <c r="B67" s="31"/>
       <c r="C67" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D67" s="19"/>
+        <v>273</v>
+      </c>
+      <c r="D67" s="28"/>
       <c r="E67" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I67" s="14" t="s">
         <v>19</v>
@@ -3815,22 +3815,22 @@
     </row>
     <row r="68" spans="1:11" ht="249.95" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B68" s="22"/>
+        <v>283</v>
+      </c>
+      <c r="B68" s="31"/>
       <c r="C68" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D68" s="19"/>
+        <v>277</v>
+      </c>
+      <c r="D68" s="28"/>
       <c r="E68" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I68" s="14" t="s">
         <v>16</v>
@@ -3838,22 +3838,22 @@
     </row>
     <row r="69" spans="1:11" ht="249.95" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B69" s="22"/>
+        <v>284</v>
+      </c>
+      <c r="B69" s="31"/>
       <c r="C69" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D69" s="19"/>
+        <v>279</v>
+      </c>
+      <c r="D69" s="28"/>
       <c r="E69" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I69" s="14" t="s">
         <v>16</v>
@@ -3861,22 +3861,22 @@
     </row>
     <row r="70" spans="1:11" ht="249.95" customHeight="1">
       <c r="A70" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" s="31"/>
+      <c r="C70" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D70" s="19"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I70" s="14" t="s">
         <v>16</v>
@@ -3884,24 +3884,24 @@
     </row>
     <row r="71" spans="1:11" ht="368.25" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B71" s="22"/>
+        <v>286</v>
+      </c>
+      <c r="B71" s="31"/>
       <c r="C71" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D71" s="19"/>
+        <v>338</v>
+      </c>
+      <c r="D71" s="28"/>
       <c r="E71" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F71" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="H71" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>297</v>
       </c>
       <c r="I71" s="14" t="s">
         <v>19</v>
@@ -3909,22 +3909,22 @@
     </row>
     <row r="72" spans="1:11" ht="377.25" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B72" s="22"/>
+        <v>296</v>
+      </c>
+      <c r="B72" s="31"/>
       <c r="C72" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="D72" s="19"/>
+        <v>339</v>
+      </c>
+      <c r="D72" s="28"/>
       <c r="E72" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I72" s="14" t="s">
         <v>19</v>
@@ -3932,22 +3932,22 @@
     </row>
     <row r="73" spans="1:11" ht="249.95" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B73" s="22"/>
+        <v>304</v>
+      </c>
+      <c r="B73" s="31"/>
       <c r="C73" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D73" s="19"/>
+        <v>310</v>
+      </c>
+      <c r="D73" s="28"/>
       <c r="E73" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I73" s="14" t="s">
         <v>16</v>
@@ -3955,22 +3955,22 @@
     </row>
     <row r="74" spans="1:11" ht="249.95" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B74" s="22"/>
+        <v>305</v>
+      </c>
+      <c r="B74" s="31"/>
       <c r="C74" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D74" s="19"/>
+        <v>313</v>
+      </c>
+      <c r="D74" s="28"/>
       <c r="E74" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I74" s="14" t="s">
         <v>16</v>
@@ -3978,22 +3978,22 @@
     </row>
     <row r="75" spans="1:11" ht="249.95" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B75" s="22"/>
+        <v>306</v>
+      </c>
+      <c r="B75" s="31"/>
       <c r="C75" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D75" s="19"/>
+        <v>325</v>
+      </c>
+      <c r="D75" s="28"/>
       <c r="E75" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I75" s="14" t="s">
         <v>16</v>
@@ -4001,22 +4001,22 @@
     </row>
     <row r="76" spans="1:11" ht="249.95" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B76" s="22"/>
+        <v>307</v>
+      </c>
+      <c r="B76" s="31"/>
       <c r="C76" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D76" s="19"/>
+        <v>319</v>
+      </c>
+      <c r="D76" s="28"/>
       <c r="E76" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I76" s="14" t="s">
         <v>16</v>
@@ -4024,22 +4024,22 @@
     </row>
     <row r="77" spans="1:11" ht="252.75" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B77" s="22"/>
+        <v>308</v>
+      </c>
+      <c r="B77" s="31"/>
       <c r="C77" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D77" s="19"/>
+        <v>319</v>
+      </c>
+      <c r="D77" s="28"/>
       <c r="E77" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I77" s="14" t="s">
         <v>16</v>
@@ -4047,22 +4047,22 @@
     </row>
     <row r="78" spans="1:11" ht="249.95" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B78" s="22"/>
+        <v>309</v>
+      </c>
+      <c r="B78" s="31"/>
       <c r="C78" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D78" s="19"/>
+        <v>329</v>
+      </c>
+      <c r="D78" s="28"/>
       <c r="E78" s="11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I78" s="14" t="s">
         <v>16</v>
@@ -4070,62 +4070,71 @@
     </row>
     <row r="79" spans="1:11" ht="252.75" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B79" s="22"/>
+        <v>328</v>
+      </c>
+      <c r="B79" s="31"/>
       <c r="C79" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D79" s="20"/>
+        <v>319</v>
+      </c>
+      <c r="D79" s="29"/>
       <c r="E79" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I79" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A80" s="23"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F29:F50"/>
+    <mergeCell ref="D29:D50"/>
+    <mergeCell ref="B29:B50"/>
+    <mergeCell ref="A80:I82"/>
+    <mergeCell ref="B7:B28"/>
+    <mergeCell ref="D7:D28"/>
+    <mergeCell ref="F7:F28"/>
+    <mergeCell ref="B51:B79"/>
+    <mergeCell ref="D51:D79"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -4135,15 +4144,6 @@
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
-    <mergeCell ref="F29:F50"/>
-    <mergeCell ref="D29:D50"/>
-    <mergeCell ref="B29:B50"/>
-    <mergeCell ref="A80:I82"/>
-    <mergeCell ref="B7:B28"/>
-    <mergeCell ref="D7:D28"/>
-    <mergeCell ref="F7:F28"/>
-    <mergeCell ref="B51:B79"/>
-    <mergeCell ref="D51:D79"/>
   </mergeCells>
   <conditionalFormatting sqref="I7:I26 I72:I77 I79">
     <cfRule type="cellIs" dxfId="35" priority="81" operator="equal">
@@ -4827,16 +4827,23 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H3:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="O3:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="A3:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
     <mergeCell ref="H18:M21"/>
     <mergeCell ref="O18:T21"/>
     <mergeCell ref="P17:T17"/>
@@ -4849,23 +4856,16 @@
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="I15:M15"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="A3:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="O3:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="H3:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
